--- a/Core.ReadXlsb/wwwroot/files/file1.xlsx
+++ b/Core.ReadXlsb/wwwroot/files/file1.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
@@ -27,12 +27,130 @@
   <si>
     <t>d</t>
   </si>
+  <si>
+    <t>Стр1</t>
+  </si>
+  <si>
+    <t>Стр2</t>
+  </si>
+  <si>
+    <t>Стр3</t>
+  </si>
+  <si>
+    <t>Стр5</t>
+  </si>
+  <si>
+    <t>Стр6</t>
+  </si>
+  <si>
+    <t>Стр7</t>
+  </si>
+  <si>
+    <t>Стр8</t>
+  </si>
+  <si>
+    <t>Стр9</t>
+  </si>
+  <si>
+    <t>Стр10</t>
+  </si>
+  <si>
+    <t>Стр11</t>
+  </si>
+  <si>
+    <t>Стр12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="83">
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode=";;;"/>
+    <numFmt numFmtId="168" formatCode="@\ *."/>
+    <numFmt numFmtId="169" formatCode="000000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0\ &quot;d.&quot;_-;\-* #,##0\ &quot;d.&quot;_-;_-* &quot;-&quot;\ &quot;d.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ &quot;d.&quot;_-;\-* #,##0.00\ &quot;d.&quot;_-;_-* &quot;-&quot;??\ &quot;d.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="0000"/>
+    <numFmt numFmtId="173" formatCode="##,#0_;\(#,##0\);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="174" formatCode="*(#,##0\);*#\,##0_);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="175" formatCode="_*\(#,##0\);_*#,##0_);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="176" formatCode="General_)"/>
+    <numFmt numFmtId="177" formatCode="* \(#,##0\);* #,##0_);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_);\(#,##0\);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="180" formatCode="* #,##0_);* \(#,##0\);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="181" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy&quot;г.&quot;"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="186" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="0.00%;\(0.00%\)"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="189" formatCode="_-* #,##0\ _P_t_s_-;\-* #,##0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="190" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="191" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="192" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="193" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="194" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="195" formatCode="_-&quot;?&quot;* #,##0_-;\-&quot;?&quot;* #,##0_-;_-&quot;?&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="196" formatCode="_-&quot;?&quot;* #,##0.00_-;\-&quot;?&quot;* #,##0.00_-;_-&quot;?&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="198" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="199" formatCode="_ * #,##0_)&quot;F&quot;_ ;_ * \(#,##0\)&quot;F&quot;_ ;_ * &quot;-&quot;_)&quot;F&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="200" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="201" formatCode="_ * #,##0.00_)&quot;F&quot;_ ;_ * \(#,##0.00\)&quot;F&quot;_ ;_ * &quot;-&quot;??_)&quot;F&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="202" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="203" formatCode="#,##0.00&quot;т.р.&quot;;\-#,##0.00&quot;т.р.&quot;"/>
+    <numFmt numFmtId="204" formatCode="_-* #,##0\ _d_._-;\-* #,##0\ _d_._-;_-* &quot;-&quot;\ _d_._-;_-@_-"/>
+    <numFmt numFmtId="205" formatCode="_-* #,##0.00\ _d_._-;\-* #,##0.00\ _d_._-;_-* &quot;-&quot;??\ _d_._-;_-@_-"/>
+    <numFmt numFmtId="206" formatCode="0.00000%"/>
+    <numFmt numFmtId="207" formatCode="0.0000000%"/>
+    <numFmt numFmtId="208" formatCode="\(#,##0.0\)"/>
+    <numFmt numFmtId="209" formatCode="#,##0\ &quot;?.&quot;;\-#,##0\ &quot;?.&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.0_)%;\(0.0\)%"/>
+    <numFmt numFmtId="211" formatCode="0.00_)%;\(0.00\)%"/>
+    <numFmt numFmtId="212" formatCode="0%_);\(0%\)"/>
+    <numFmt numFmtId="213" formatCode="* \(#,##0.0\);* #,##0.0_);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="214" formatCode="* \(#,##0.00\);* #,##0.00_);&quot;-&quot;??_);@"/>
+    <numFmt numFmtId="215" formatCode="_(* \(#,##0.0\);_(* #,##0.0_);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="216" formatCode="_(* \(#,##0.00\);_(* #,##0.00_);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="217" formatCode="_(* \(#,##0.000\);_(* #,##0.000_);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="218" formatCode="#,##0.000000;[Red]#,##0.000000"/>
+    <numFmt numFmtId="219" formatCode="_-* #,##0\ &quot;Pts&quot;_-;\-* #,##0\ &quot;Pts&quot;_-;_-* &quot;-&quot;\ &quot;Pts&quot;_-;_-@_-"/>
+    <numFmt numFmtId="220" formatCode="_-* #,##0.00\ &quot;Pts&quot;_-;\-* #,##0.00\ &quot;Pts&quot;_-;_-* &quot;-&quot;??\ &quot;Pts&quot;_-;_-@_-"/>
+    <numFmt numFmtId="221" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="222" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="223" formatCode="_ * #,##0_ ;_ * \(#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="224" formatCode="&quot;$&quot;#,##0.000000;[Red]&quot;$&quot;#,##0.000000"/>
+    <numFmt numFmtId="225" formatCode="#,##0.0000000_$"/>
+    <numFmt numFmtId="226" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="227" formatCode="_ * #,##0_ ;_ * \(#,##0_)\ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="228" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="229" formatCode="&quot;$&quot;"/>
+    <numFmt numFmtId="230" formatCode="_._.* #,##0_)_%;_._.* \(#,##0\)_%;_._.* \ _)_%"/>
+    <numFmt numFmtId="231" formatCode="yyyy"/>
+    <numFmt numFmtId="232" formatCode="yyyy\ &quot;год&quot;"/>
+    <numFmt numFmtId="233" formatCode="#,##0\в"/>
+    <numFmt numFmtId="234" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
+    <numFmt numFmtId="235" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="236" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="237" formatCode="0.000"/>
+    <numFmt numFmtId="238" formatCode="#,##0.00&quot;р.&quot;;\-#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="239" formatCode="0.0"/>
+    <numFmt numFmtId="240" formatCode="#,##0.000"/>
+    <numFmt numFmtId="241" formatCode="#,##0\т"/>
+    <numFmt numFmtId="242" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;_р_._-;_-@_-"/>
+    <numFmt numFmtId="243" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="244" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="245" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="246" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+  </numFmts>
+  <fonts count="118">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,16 +158,938 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="?l?r ?o?S?V?b?N"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="’†?S?V?b?N‘М"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helv"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="18"/>
+      <name val="Courier"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="56"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="21"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="StoneSerif"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="7"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Futura UBS Bk"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="16"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Helvetica-Black"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color indexed="36"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="36"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Gill Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Gill Sans"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="TimesET"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="Helvetica-Black"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="UBSHeadline"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="6"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color indexed="23"/>
+      <name val="Helvetica-Black"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="23"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="21"/>
+      <name val="Helvetica-Black"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica-Black"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Helvetica-Black"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica-Black"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Palatino"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="18"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="12"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial CYR"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color indexed="48"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color indexed="57"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman CYR"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="NTHarmonica"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="22"/>
+        <bgColor indexed="35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="38"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -57,15 +1097,1621 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="51"/>
+      </left>
+      <right style="thin">
+        <color indexed="51"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="5" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="3" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="30" fillId="0" borderId="7" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="37" fontId="31" fillId="0" borderId="7" applyFont="0" applyFill="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="32" fillId="3" borderId="4" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="31" fillId="0" borderId="7" applyFill="0" applyBorder="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="15" fontId="34" fillId="0" borderId="8" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="182" fontId="34" fillId="0" borderId="8" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="6" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="3" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="186" fontId="38" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="39" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="6" borderId="0" applyAlignment="0">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyFill="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="6" borderId="0" applyAlignment="0">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="48" fillId="0" borderId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="195" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="196" fontId="55" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="198" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="203" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="204" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="207" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="209" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="210" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="211" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="212" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="213" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="214" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="215" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="216" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="217" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="218" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="63" fillId="2" borderId="13"/>
+    <xf numFmtId="37" fontId="63" fillId="2" borderId="13"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="2" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="67" fillId="2" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="2" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="2" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="8" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="9" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="10" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="11" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="12" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="13" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="14" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="15" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="16" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="17" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="18" borderId="16" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="69" fillId="19" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="18" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="20" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="5" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="67" fillId="5" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="5" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="5" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="18" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="67" fillId="18" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="4" fontId="71" fillId="18" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="22" borderId="17">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="12" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="23" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="24" borderId="12" applyBorder="0" applyProtection="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="18" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="82" fillId="25" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="9" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0"/>
+    <xf numFmtId="219" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="220" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="221" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="222" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="221" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="222" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="223" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="224" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="225" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="226" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="227" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="228" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="229" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="230" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="12" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="231" fontId="34" fillId="0" borderId="8" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="232" fontId="87" fillId="0" borderId="8" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="88" fillId="0" borderId="19">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="233" fontId="89" fillId="0" borderId="20">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="90" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0"/>
+    <xf numFmtId="234" fontId="88" fillId="0" borderId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="235" fontId="92" fillId="0" borderId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="93" fillId="0" borderId="4">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="93" fillId="0" borderId="4"/>
+    <xf numFmtId="4" fontId="93" fillId="26" borderId="4"/>
+    <xf numFmtId="4" fontId="93" fillId="27" borderId="4"/>
+    <xf numFmtId="4" fontId="34" fillId="28" borderId="4"/>
+    <xf numFmtId="4" fontId="94" fillId="3" borderId="4"/>
+    <xf numFmtId="4" fontId="95" fillId="0" borderId="4">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="235" fontId="93" fillId="0" borderId="4"/>
+    <xf numFmtId="235" fontId="92" fillId="0" borderId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="96" fillId="0" borderId="4">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="235" fontId="97" fillId="0" borderId="4"/>
+    <xf numFmtId="235" fontId="98" fillId="0" borderId="4"/>
+    <xf numFmtId="4" fontId="92" fillId="0" borderId="4"/>
+    <xf numFmtId="14" fontId="99" fillId="0" borderId="21" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="88" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="99" fillId="0" borderId="21" applyBorder="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="236" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="236" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="236" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="100" fillId="28" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="22" applyBorder="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="102" fillId="29" borderId="19"/>
+    <xf numFmtId="4" fontId="103" fillId="2" borderId="4" applyBorder="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="237" fontId="104" fillId="0" borderId="4"/>
+    <xf numFmtId="3" fontId="93" fillId="26" borderId="4"/>
+    <xf numFmtId="0" fontId="105" fillId="4" borderId="0" applyFill="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="238" fontId="108" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="90" fillId="0" borderId="4">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="239" fontId="109" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="240" fontId="111" fillId="0" borderId="4"/>
+    <xf numFmtId="235" fontId="112" fillId="0" borderId="4">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="237" fontId="113" fillId="0" borderId="4"/>
+    <xf numFmtId="3" fontId="114" fillId="30" borderId="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="109" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="115" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="105" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="241" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="242" fontId="116" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="243" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="242" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="244" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="245" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="103" fillId="4" borderId="0" applyBorder="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="103" fillId="31" borderId="23" applyBorder="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="103" fillId="4" borderId="4" applyFont="0" applyBorder="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="246" fontId="88" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="92" fillId="0" borderId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="117" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="240" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="386"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="386" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="386" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="387" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="237" fontId="1" fillId="0" borderId="0" xfId="386" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="387" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="237" fontId="1" fillId="0" borderId="0" xfId="386" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="386" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="433">
+    <cellStyle name="_x000a_bidires=100_x000d_" xfId="1"/>
+    <cellStyle name="?_x0001_" xfId="2"/>
+    <cellStyle name="?…?ж?Ш?и [0.00]" xfId="3"/>
+    <cellStyle name="?W??_‘O’с?р??" xfId="4"/>
+    <cellStyle name="]_x000d__x000a_Zoomed=1_x000d__x000a_Row=0_x000d__x000a_Column=0_x000d__x000a_Height=0_x000d__x000a_Width=0_x000d__x000a_FontName=FoxFont_x000d__x000a_FontStyle=0_x000d__x000a_FontSize=9_x000d__x000a_PrtFontName=FoxPrin" xfId="5"/>
+    <cellStyle name="_3 кв 2006 Свод_140706" xfId="6"/>
+    <cellStyle name="_9 mos slides" xfId="7"/>
+    <cellStyle name="_CurrencySpace_04 Medfenix Company Model1" xfId="8"/>
+    <cellStyle name="_Heading" xfId="9"/>
+    <cellStyle name="_PBC schedule" xfId="10"/>
+    <cellStyle name="_Plug" xfId="11"/>
+    <cellStyle name="_RP-2000" xfId="12"/>
+    <cellStyle name="_Slides 2006_11_23 (корр себест)" xfId="13"/>
+    <cellStyle name="_Slides рабочий" xfId="14"/>
+    <cellStyle name="_SUEK PBC (15)" xfId="15"/>
+    <cellStyle name="_SZNP - Eqiuty Roll" xfId="16"/>
+    <cellStyle name="_SZNP - rasshifrovki-002000-333" xfId="17"/>
+    <cellStyle name="_SZNP - TRS-092000" xfId="18"/>
+    <cellStyle name="_TableHead" xfId="19"/>
+    <cellStyle name="_TableRowHead" xfId="20"/>
+    <cellStyle name="_TableSuperHead" xfId="21"/>
+    <cellStyle name="_ахр_2006_проверка20060904" xfId="22"/>
+    <cellStyle name="_БДР _ 2006_28 ноя" xfId="23"/>
+    <cellStyle name="_бдр_бюджетный пакет_r_2" xfId="24"/>
+    <cellStyle name="_БПакет_рассылка_20060905" xfId="25"/>
+    <cellStyle name="_Бюджет 2006_группа_защита_3" xfId="26"/>
+    <cellStyle name="_Бюджет 2006_утвержденный" xfId="27"/>
+    <cellStyle name="_Бюджет КВ_2006_13 03 2006" xfId="28"/>
+    <cellStyle name="_Бюджет КВ_2006_17 03 2006_2 (2)" xfId="29"/>
+    <cellStyle name="_Бюджет КВ_2006_II кв" xfId="30"/>
+    <cellStyle name="_Бюджет КВ_пл 3 кв_13 07 06" xfId="31"/>
+    <cellStyle name="_Бюджет на 2006 г 21 11 05 (2)" xfId="32"/>
+    <cellStyle name="_Бюджет на 2006 г.14.11.05" xfId="33"/>
+    <cellStyle name="_Бюджетный пакет ver 2006_12_11 (Элла)" xfId="34"/>
+    <cellStyle name="_Динамика 1-2006 230506" xfId="35"/>
+    <cellStyle name="_Добыча+Реализация" xfId="36"/>
+    <cellStyle name="_Инвестиции_по оплате 08.11" xfId="37"/>
+    <cellStyle name="_Капвложения 2006" xfId="38"/>
+    <cellStyle name="_Книга1 (12)" xfId="39"/>
+    <cellStyle name="_Книга2 (22)" xfId="40"/>
+    <cellStyle name="_Книга34" xfId="41"/>
+    <cellStyle name="_Консолидация-формат - I полугодие 2008 г." xfId="42"/>
+    <cellStyle name="_Копия Дополнение к PBC+ (version 1)" xfId="43"/>
+    <cellStyle name="_Отчет СД_ЛН" xfId="44"/>
+    <cellStyle name="_Отчеты БДДС_" xfId="45"/>
+    <cellStyle name="_Первоочередное оборудование 2006 утверждено" xfId="46"/>
+    <cellStyle name="_Перечень форм" xfId="47"/>
+    <cellStyle name="_Пофакторный анализ 3 квартал 2006-2005" xfId="48"/>
+    <cellStyle name="_Рабочие таблицы для отчетности по МСФО" xfId="49"/>
+    <cellStyle name="_Расш. доп. инф. (на 31.12.2005г.)" xfId="50"/>
+    <cellStyle name="_Расшифровка забаланс статей (на 30.06.2005г.)" xfId="51"/>
+    <cellStyle name="_Расшифровка забаланса (на 31.12.2005г.)" xfId="52"/>
+    <cellStyle name="_Расшифровка ОПУ-форма 2 (за год 2005г.)" xfId="53"/>
+    <cellStyle name="_Расшифровка статей баланса (на 30.06.2005г.)" xfId="54"/>
+    <cellStyle name="_расшифровка ф. 2" xfId="55"/>
+    <cellStyle name="_Свод бюджетов за 5 м-цев" xfId="56"/>
+    <cellStyle name="_Свод вариант с расц ДМТС_07 03" xfId="57"/>
+    <cellStyle name="_Свод инвестиций_13.01" xfId="58"/>
+    <cellStyle name="_Свод форматов_БДДС" xfId="59"/>
+    <cellStyle name="_сравнение новых 2007х (2)" xfId="60"/>
+    <cellStyle name="_Таблица соответствия ЕПС и ТВ 060610" xfId="61"/>
+    <cellStyle name="_Таблица соответствия ЕПС и ТВ МСФО PL" xfId="62"/>
+    <cellStyle name="_ТАБЛИЦЫ_РАССЫЛКА_4" xfId="63"/>
+    <cellStyle name="_Форма 2 - предложенная аудиторами" xfId="64"/>
+    <cellStyle name="_Формат БДДС_061020_sent" xfId="65"/>
+    <cellStyle name="’К‰Э [0.00]" xfId="66"/>
+    <cellStyle name="”€ќђќ‘ћ‚›‰" xfId="67"/>
+    <cellStyle name="”€Љ‘€ђЋ‚ЂЌЌ›‰" xfId="68"/>
+    <cellStyle name="”ќђќ‘ћ‚›‰" xfId="69"/>
+    <cellStyle name="”љ‘ђћ‚ђќќ›‰" xfId="70"/>
+    <cellStyle name="„…ќ…†ќ›‰" xfId="71"/>
+    <cellStyle name="„ђ’ђ" xfId="72"/>
+    <cellStyle name="€’ћѓћ‚›‰" xfId="73"/>
+    <cellStyle name="‡ђѓћ‹ћ‚ћљ1" xfId="74"/>
+    <cellStyle name="‡ђѓћ‹ћ‚ћљ2" xfId="75"/>
+    <cellStyle name="’ћѓћ‚›‰" xfId="76"/>
+    <cellStyle name="++" xfId="77"/>
+    <cellStyle name="" xfId="78"/>
+    <cellStyle name="++_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="79"/>
+    <cellStyle name="_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="80"/>
+    <cellStyle name="++_U1" xfId="81"/>
+    <cellStyle name="_U1" xfId="82"/>
+    <cellStyle name="++_U1_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="83"/>
+    <cellStyle name="_U1_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="84"/>
+    <cellStyle name="++_U1_Водоканал 2008-2010гг" xfId="85"/>
+    <cellStyle name="_U1_Водоканал 2008-2010гг" xfId="86"/>
+    <cellStyle name="++_U1_Прогноз 2010г. в новой форме" xfId="87"/>
+    <cellStyle name="_U1_Прогноз 2010г. в новой форме" xfId="88"/>
+    <cellStyle name="++_U1_Энергия, водоснабжение, покупное тепло за 9 мес. 2009  г. (20.10.09)" xfId="89"/>
+    <cellStyle name="_U1_Энергия, водоснабжение, покупное тепло за 9 мес. 2009  г. (20.10.09)" xfId="90"/>
+    <cellStyle name="++_Водоканал 2008-2010гг" xfId="91"/>
+    <cellStyle name="_Водоканал 2008-2010гг" xfId="92"/>
+    <cellStyle name="++_Прогноз 2010г. в новой форме" xfId="93"/>
+    <cellStyle name="_Прогноз 2010г. в новой форме" xfId="94"/>
+    <cellStyle name="++_Энергия, водоснабжение, покупное тепло за 9 мес. 2009  г. (20.10.09)" xfId="95"/>
+    <cellStyle name="_Энергия, водоснабжение, покупное тепло за 9 мес. 2009  г. (20.10.09)" xfId="96"/>
+    <cellStyle name="+" xfId="97"/>
+    <cellStyle name="" xfId="98"/>
+    <cellStyle name="+_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="99"/>
+    <cellStyle name="_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="100"/>
+    <cellStyle name="+_U1" xfId="101"/>
+    <cellStyle name="_U1" xfId="102"/>
+    <cellStyle name="+_U1_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="103"/>
+    <cellStyle name="_U1_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="104"/>
+    <cellStyle name="+_U1_Водоканал 2008-2010гг" xfId="105"/>
+    <cellStyle name="_U1_Водоканал 2008-2010гг" xfId="106"/>
+    <cellStyle name="+_U1_Прогноз 2010г. в новой форме" xfId="107"/>
+    <cellStyle name="_U1_Прогноз 2010г. в новой форме" xfId="108"/>
+    <cellStyle name="+_U1_Энергия, водоснабжение, покупное тепло за 9 мес. 2009  г. (20.10.09)" xfId="109"/>
+    <cellStyle name="_U1_Энергия, водоснабжение, покупное тепло за 9 мес. 2009  г. (20.10.09)" xfId="110"/>
+    <cellStyle name="+_Водоканал 2008-2010гг" xfId="111"/>
+    <cellStyle name="_Водоканал 2008-2010гг" xfId="112"/>
+    <cellStyle name="+_Прогноз 2010г. в новой форме" xfId="113"/>
+    <cellStyle name="_Прогноз 2010г. в новой форме" xfId="114"/>
+    <cellStyle name="+_Энергия, водоснабжение, покупное тепло за 9 мес. 2009  г. (20.10.09)" xfId="115"/>
+    <cellStyle name="_Энергия, водоснабжение, покупное тепло за 9 мес. 2009  г. (20.10.09)" xfId="116"/>
+    <cellStyle name="" xfId="117"/>
+    <cellStyle name="1" xfId="118"/>
+    <cellStyle name="2" xfId="119"/>
+    <cellStyle name="0,00;0;" xfId="120"/>
+    <cellStyle name="6Code" xfId="121"/>
+    <cellStyle name="8pt" xfId="122"/>
+    <cellStyle name="Aaia?iue" xfId="123"/>
+    <cellStyle name="Aaia?iue [0]" xfId="124"/>
+    <cellStyle name="Aaia?iue_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="125"/>
+    <cellStyle name="Aeia?nnueea" xfId="126"/>
+    <cellStyle name="Alilciue [0]_1TEK" xfId="127"/>
+    <cellStyle name="Alilciue_1TEK" xfId="128"/>
+    <cellStyle name="blank" xfId="129"/>
+    <cellStyle name="Blue" xfId="130"/>
+    <cellStyle name="Body_$Dollars" xfId="131"/>
+    <cellStyle name="Calc Currency (0)" xfId="132"/>
+    <cellStyle name="Centered Heading" xfId="133"/>
+    <cellStyle name="CMK" xfId="134"/>
+    <cellStyle name="Code" xfId="135"/>
+    <cellStyle name="Comma 0" xfId="136"/>
+    <cellStyle name="Comma 0*" xfId="137"/>
+    <cellStyle name="Comma 0.0" xfId="138"/>
+    <cellStyle name="Comma 0.00" xfId="139"/>
+    <cellStyle name="Comma 0.000" xfId="140"/>
+    <cellStyle name="Comma 2" xfId="141"/>
+    <cellStyle name="Comma 3*" xfId="142"/>
+    <cellStyle name="Comma1 - Style1" xfId="143"/>
+    <cellStyle name="Company Name" xfId="144"/>
+    <cellStyle name="Credit" xfId="145"/>
+    <cellStyle name="Credit subtotal" xfId="146"/>
+    <cellStyle name="Credit Total" xfId="147"/>
+    <cellStyle name="Currency [0]" xfId="148"/>
+    <cellStyle name="Currency 0" xfId="149"/>
+    <cellStyle name="Currency 0.0" xfId="150"/>
+    <cellStyle name="Currency 0.00" xfId="151"/>
+    <cellStyle name="Currency 0.000" xfId="152"/>
+    <cellStyle name="Currency 2" xfId="153"/>
+    <cellStyle name="Currency EN" xfId="154"/>
+    <cellStyle name="Currency RU" xfId="155"/>
+    <cellStyle name="Currency RU calc" xfId="156"/>
+    <cellStyle name="Currency RU_CP-P (2)" xfId="157"/>
+    <cellStyle name="Currency2" xfId="158"/>
+    <cellStyle name="Date" xfId="159"/>
+    <cellStyle name="Date Aligned" xfId="160"/>
+    <cellStyle name="Date EN" xfId="161"/>
+    <cellStyle name="Date RU" xfId="162"/>
+    <cellStyle name="Debit" xfId="163"/>
+    <cellStyle name="Debit subtotal" xfId="164"/>
+    <cellStyle name="Debit Total" xfId="165"/>
+    <cellStyle name="Dezimal [0]_engagement pub" xfId="166"/>
+    <cellStyle name="Dezimal_engagement pub" xfId="167"/>
+    <cellStyle name="Dotted Line" xfId="168"/>
+    <cellStyle name="Dziesiętny [0]_Annexes WWBU 02-03 ER" xfId="169"/>
+    <cellStyle name="Dziesiętny_Annexes WWBU 02-03 ER" xfId="170"/>
+    <cellStyle name="Euro" xfId="171"/>
+    <cellStyle name="ew" xfId="172"/>
+    <cellStyle name="F2" xfId="173"/>
+    <cellStyle name="F3" xfId="174"/>
+    <cellStyle name="F4" xfId="175"/>
+    <cellStyle name="F5" xfId="176"/>
+    <cellStyle name="F6" xfId="177"/>
+    <cellStyle name="F7" xfId="178"/>
+    <cellStyle name="F8" xfId="179"/>
+    <cellStyle name="Fixed3 - Style2" xfId="180"/>
+    <cellStyle name="fo]_x000d__x000a_UserName=Murat Zelef_x000d__x000a_UserCompany=Bumerang_x000d__x000a__x000d__x000a_[File Paths]_x000d__x000a_WorkingDirectory=C:\EQUIS\DLWIN_x000d__x000a_DownLoader=C" xfId="181"/>
+    <cellStyle name="Footnote" xfId="182"/>
+    <cellStyle name="hard no" xfId="183"/>
+    <cellStyle name="hard no." xfId="184"/>
+    <cellStyle name="Hard Percent" xfId="185"/>
+    <cellStyle name="hardno" xfId="186"/>
+    <cellStyle name="Header" xfId="187"/>
+    <cellStyle name="Header1" xfId="188"/>
+    <cellStyle name="Header2" xfId="189"/>
+    <cellStyle name="Heading" xfId="190"/>
+    <cellStyle name="Heading 2" xfId="191"/>
+    <cellStyle name="Heading 3" xfId="192"/>
+    <cellStyle name="Heading No Underline" xfId="193"/>
+    <cellStyle name="Heading With Underline" xfId="194"/>
+    <cellStyle name="Heading_CFS from EBITDA 6m05_05_esz" xfId="195"/>
+    <cellStyle name="Hipervínculo visitado_~0039347" xfId="196"/>
+    <cellStyle name="Hipervínculo_COMPARATIVOSSI" xfId="197"/>
+    <cellStyle name="I?ioaio" xfId="198"/>
+    <cellStyle name="Iau?iue" xfId="199"/>
+    <cellStyle name="Îáû÷íûé_cogs" xfId="200"/>
+    <cellStyle name="Info" xfId="201"/>
+    <cellStyle name="Input" xfId="202"/>
+    <cellStyle name="InputCurrency" xfId="203"/>
+    <cellStyle name="InputCurrency2" xfId="204"/>
+    <cellStyle name="InputMultiple1" xfId="205"/>
+    <cellStyle name="InputPercent1" xfId="206"/>
+    <cellStyle name="Ioe?uaaaoayny aeia?nnueea" xfId="207"/>
+    <cellStyle name="ISO" xfId="208"/>
+    <cellStyle name="LMK" xfId="209"/>
+    <cellStyle name="Migliaia (0)_Ita_01graf" xfId="210"/>
+    <cellStyle name="Migliaia_Ita_01graf" xfId="211"/>
+    <cellStyle name="Millares [0]_~0011760" xfId="212"/>
+    <cellStyle name="Millares_~0011760" xfId="213"/>
+    <cellStyle name="Milliers [0]_RESULTS" xfId="214"/>
+    <cellStyle name="Milliers_RESULTS" xfId="215"/>
+    <cellStyle name="Mon?taire [0]_RESULTS" xfId="216"/>
+    <cellStyle name="Mon?taire_RESULTS" xfId="217"/>
+    <cellStyle name="Moneda [0]_~0011760" xfId="218"/>
+    <cellStyle name="Moneda_~0011760" xfId="219"/>
+    <cellStyle name="Monetaire [0]_AR" xfId="220"/>
+    <cellStyle name="Monétaire [0]_RESULTS" xfId="221"/>
+    <cellStyle name="Monetaire_AR" xfId="222"/>
+    <cellStyle name="Monétaire_RESULTS" xfId="223"/>
+    <cellStyle name="Multiple" xfId="224"/>
+    <cellStyle name="Multiple1" xfId="225"/>
+    <cellStyle name="MultipleBelow" xfId="226"/>
+    <cellStyle name="Non d‚fini" xfId="227"/>
+    <cellStyle name="Non défini" xfId="228"/>
+    <cellStyle name="Normal - Style1" xfId="229"/>
+    <cellStyle name="Normal_Budgeting model_master_v14 OZ" xfId="230"/>
+    <cellStyle name="Normal1" xfId="231"/>
+    <cellStyle name="Normal2" xfId="232"/>
+    <cellStyle name="Normale_Ita_01graf" xfId="233"/>
+    <cellStyle name="NormalGB" xfId="234"/>
+    <cellStyle name="normální_laroux" xfId="235"/>
+    <cellStyle name="Normalny_24. 02. 97." xfId="236"/>
+    <cellStyle name="normбlnм_laroux" xfId="237"/>
+    <cellStyle name="Ociriniaue [0]_1TEK" xfId="238"/>
+    <cellStyle name="Ociriniaue_1TEK" xfId="239"/>
+    <cellStyle name="Oeiainiaue [0]_NotesFA" xfId="240"/>
+    <cellStyle name="Oeiainiaue_NotesFA" xfId="241"/>
+    <cellStyle name="Option" xfId="242"/>
+    <cellStyle name="Ouny?e" xfId="243"/>
+    <cellStyle name="Ouny?e [0]" xfId="244"/>
+    <cellStyle name="Ouny?e_1-2. Отчет за 6 мес. 2009 г. для отправки (22.07.09)" xfId="245"/>
+    <cellStyle name="Òûñÿ÷è [0]_cogs" xfId="246"/>
+    <cellStyle name="Òûñÿ÷è_cogs" xfId="247"/>
+    <cellStyle name="Paaotsikko" xfId="248"/>
+    <cellStyle name="Page Number" xfId="249"/>
+    <cellStyle name="pb_page_heading_LS" xfId="250"/>
+    <cellStyle name="Percen - Style1" xfId="251"/>
+    <cellStyle name="Percen - Style3" xfId="252"/>
+    <cellStyle name="Percent %" xfId="253"/>
+    <cellStyle name="Percent % Long Underline" xfId="254"/>
+    <cellStyle name="Percent (0)" xfId="255"/>
+    <cellStyle name="Percent 0.0%" xfId="256"/>
+    <cellStyle name="Percent 0.0% Long Underline" xfId="257"/>
+    <cellStyle name="Percent 0.00%" xfId="258"/>
+    <cellStyle name="Percent 0.00% Long Underline" xfId="259"/>
+    <cellStyle name="Percent 0.000%" xfId="260"/>
+    <cellStyle name="Percent 0.000% Long Underline" xfId="261"/>
+    <cellStyle name="Percent1" xfId="262"/>
+    <cellStyle name="Piug" xfId="263"/>
+    <cellStyle name="Plug" xfId="264"/>
+    <cellStyle name="Price_Body" xfId="265"/>
+    <cellStyle name="Salomon Logo" xfId="266"/>
+    <cellStyle name="SAPBEXaggData" xfId="267"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="268"/>
+    <cellStyle name="SAPBEXaggItem" xfId="269"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="270"/>
+    <cellStyle name="SAPBEXchaText" xfId="271"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="272"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="273"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="274"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="275"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="276"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="277"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="278"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="279"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="280"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="281"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="282"/>
+    <cellStyle name="SAPBEXfilterText" xfId="283"/>
+    <cellStyle name="SAPBEXformats" xfId="284"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="285"/>
+    <cellStyle name="SAPBEXheaderText" xfId="286"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="287"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="288"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="289"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="290"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="291"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="292"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="293"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="294"/>
+    <cellStyle name="SAPBEXresData" xfId="295"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="296"/>
+    <cellStyle name="SAPBEXresItem" xfId="297"/>
+    <cellStyle name="SAPBEXresItemX" xfId="298"/>
+    <cellStyle name="SAPBEXstdData" xfId="299"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="300"/>
+    <cellStyle name="SAPBEXstdItem" xfId="301"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="302"/>
+    <cellStyle name="SAPBEXtitle" xfId="303"/>
+    <cellStyle name="SAPBEXundefined" xfId="304"/>
+    <cellStyle name="SEM-BPS-input-on" xfId="305"/>
+    <cellStyle name="small" xfId="306"/>
+    <cellStyle name="Standard_engagement pub" xfId="307"/>
+    <cellStyle name="Table Head" xfId="308"/>
+    <cellStyle name="Table Head Aligned" xfId="309"/>
+    <cellStyle name="Table Head Blue" xfId="310"/>
+    <cellStyle name="Table Head Green" xfId="311"/>
+    <cellStyle name="Table Head_Val_Sum_Graph" xfId="312"/>
+    <cellStyle name="Table Heading" xfId="313"/>
+    <cellStyle name="Table Text" xfId="314"/>
+    <cellStyle name="Table Title" xfId="315"/>
+    <cellStyle name="Table Units" xfId="316"/>
+    <cellStyle name="Table_Header" xfId="317"/>
+    <cellStyle name="Text" xfId="318"/>
+    <cellStyle name="Text 1" xfId="319"/>
+    <cellStyle name="Text Head" xfId="320"/>
+    <cellStyle name="Text Head 1" xfId="321"/>
+    <cellStyle name="Tickmark" xfId="322"/>
+    <cellStyle name="Title" xfId="323"/>
+    <cellStyle name="Topline" xfId="324"/>
+    <cellStyle name="Total" xfId="325"/>
+    <cellStyle name="TotalCurrency" xfId="326"/>
+    <cellStyle name="Undefiniert" xfId="327"/>
+    <cellStyle name="Underline_Single" xfId="328"/>
+    <cellStyle name="Unit" xfId="329"/>
+    <cellStyle name="Valiotsikko" xfId="330"/>
+    <cellStyle name="Valuta (0)_Ita_01graf" xfId="331"/>
+    <cellStyle name="Valuta_Ita_01graf" xfId="332"/>
+    <cellStyle name="Währung [0]_engagement pub" xfId="333"/>
+    <cellStyle name="Währung_engagement pub" xfId="334"/>
+    <cellStyle name="Walutowy [0]_Annexes WWBU 02-03 ER" xfId="335"/>
+    <cellStyle name="Walutowy_Annexes WWBU 02-03 ER" xfId="336"/>
+    <cellStyle name="XComma" xfId="337"/>
+    <cellStyle name="XComma 0.0" xfId="338"/>
+    <cellStyle name="XComma 0.00" xfId="339"/>
+    <cellStyle name="XComma 0.000" xfId="340"/>
+    <cellStyle name="XCurrency" xfId="341"/>
+    <cellStyle name="XCurrency 0.0" xfId="342"/>
+    <cellStyle name="XCurrency 0.00" xfId="343"/>
+    <cellStyle name="XCurrency 0.000" xfId="344"/>
+    <cellStyle name="year" xfId="345"/>
+    <cellStyle name="Year EN" xfId="346"/>
+    <cellStyle name="Year RU" xfId="347"/>
+    <cellStyle name="Βασικό_Analyse Trimestrielle E0" xfId="348"/>
+    <cellStyle name="Беззащитный" xfId="349"/>
+    <cellStyle name="вагоны" xfId="350"/>
+    <cellStyle name="Верт. заголовок" xfId="351"/>
+    <cellStyle name="Верх" xfId="352"/>
+    <cellStyle name="Вес_продукта" xfId="353"/>
+    <cellStyle name="Группа" xfId="354"/>
+    <cellStyle name="Группа 0" xfId="355"/>
+    <cellStyle name="Группа 1" xfId="356"/>
+    <cellStyle name="Группа 2" xfId="357"/>
+    <cellStyle name="Группа 3" xfId="358"/>
+    <cellStyle name="Группа 4" xfId="359"/>
+    <cellStyle name="Группа 5" xfId="360"/>
+    <cellStyle name="Группа 6" xfId="361"/>
+    <cellStyle name="Группа 7" xfId="362"/>
+    <cellStyle name="Группа 8" xfId="363"/>
+    <cellStyle name="Группа_" xfId="364"/>
+    <cellStyle name="Группа0 0" xfId="365"/>
+    <cellStyle name="Группа0 1" xfId="366"/>
+    <cellStyle name="Группа0 2" xfId="367"/>
+    <cellStyle name="Дата" xfId="368"/>
+    <cellStyle name="Дата UTL" xfId="369"/>
+    <cellStyle name="Дата_Audit Com_9m05_2" xfId="370"/>
+    <cellStyle name="Денежный [0] 2" xfId="371"/>
+    <cellStyle name="Денежный [0] 2 2" xfId="372"/>
+    <cellStyle name="Денежный [0] 2 2 2" xfId="373"/>
+    <cellStyle name="Заголовок" xfId="374"/>
+    <cellStyle name="ЗаголовокСтолбца" xfId="375"/>
+    <cellStyle name="Защитный" xfId="376"/>
+    <cellStyle name="Значение" xfId="377"/>
+    <cellStyle name="Итого" xfId="378"/>
+    <cellStyle name="Количество" xfId="379"/>
+    <cellStyle name="Мои наименования показателей" xfId="380"/>
+    <cellStyle name="Мой заголовок" xfId="381"/>
+    <cellStyle name="Мой заголовок листа" xfId="382"/>
+    <cellStyle name="Невидимый" xfId="383"/>
+    <cellStyle name="Низ1" xfId="384"/>
+    <cellStyle name="Низ2" xfId="385"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="387"/>
+    <cellStyle name="Обычный 2 2" xfId="388"/>
+    <cellStyle name="Обычный 2 2 2" xfId="389"/>
+    <cellStyle name="Обычный 2 2 3" xfId="390"/>
+    <cellStyle name="Обычный 2 3" xfId="391"/>
+    <cellStyle name="Обычный 2 4" xfId="392"/>
+    <cellStyle name="Обычный 3" xfId="393"/>
+    <cellStyle name="Обычный 3 2" xfId="394"/>
+    <cellStyle name="Обычный 3 2 2" xfId="395"/>
+    <cellStyle name="Обычный 3 3" xfId="396"/>
+    <cellStyle name="Обычный 3 4" xfId="397"/>
+    <cellStyle name="Обычный 4" xfId="398"/>
+    <cellStyle name="Обычный 4 2" xfId="399"/>
+    <cellStyle name="Обычный 4 3" xfId="400"/>
+    <cellStyle name="Обычный 4 4" xfId="401"/>
+    <cellStyle name="Обычный 5" xfId="402"/>
+    <cellStyle name="Обычный 5 2" xfId="403"/>
+    <cellStyle name="Обычный 6" xfId="404"/>
+    <cellStyle name="Обычный 7" xfId="405"/>
+    <cellStyle name="Обычный_Лист1" xfId="386"/>
+    <cellStyle name="План" xfId="406"/>
+    <cellStyle name="Подгруппа" xfId="407"/>
+    <cellStyle name="Продукт" xfId="408"/>
+    <cellStyle name="Процентный 2" xfId="409"/>
+    <cellStyle name="Процентный 3" xfId="410"/>
+    <cellStyle name="Процентный 4" xfId="411"/>
+    <cellStyle name="Разница" xfId="412"/>
+    <cellStyle name="Сводная таблица" xfId="413"/>
+    <cellStyle name="Стиль 1" xfId="414"/>
+    <cellStyle name="Субсчет" xfId="415"/>
+    <cellStyle name="Счет" xfId="416"/>
+    <cellStyle name="Текстовый" xfId="417"/>
+    <cellStyle name="тонны" xfId="418"/>
+    <cellStyle name="Тысячи [0]_3Com" xfId="419"/>
+    <cellStyle name="Тысячи_28-31" xfId="420"/>
+    <cellStyle name="Финансовый [0] 2" xfId="421"/>
+    <cellStyle name="Финансовый 2" xfId="422"/>
+    <cellStyle name="Финансовый0[0]_FU_bal" xfId="423"/>
+    <cellStyle name="Формула" xfId="424"/>
+    <cellStyle name="ФормулаВБ" xfId="425"/>
+    <cellStyle name="ФормулаНаКонтроль" xfId="426"/>
+    <cellStyle name="Цена_продукта" xfId="427"/>
+    <cellStyle name="Џђћ–…ќ’ќ›‰" xfId="428"/>
+    <cellStyle name="Шапка" xfId="429"/>
+    <cellStyle name="ШАУ" xfId="430"/>
+    <cellStyle name="標準_PL-CF sheet" xfId="431"/>
+    <cellStyle name="䁺_x0001_" xfId="432"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -367,15 +3013,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +3035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,6 +3047,144 @@
       </c>
       <c r="D2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75">
+      <c r="A155" s="1">
+        <v>155</v>
+      </c>
+      <c r="B155" s="4"/>
+      <c r="C155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75">
+      <c r="A156" s="1">
+        <v>156</v>
+      </c>
+      <c r="B156" s="6"/>
+      <c r="C156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75">
+      <c r="A157" s="1"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="1:4" ht="15.75">
+      <c r="A158" s="1">
+        <v>158</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75">
+      <c r="A159" s="1">
+        <v>159</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75">
+      <c r="A160" s="1">
+        <v>160</v>
+      </c>
+      <c r="B160" s="4"/>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75">
+      <c r="A161" s="1">
+        <v>161</v>
+      </c>
+      <c r="B161" s="4"/>
+      <c r="C161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75">
+      <c r="A162" s="1">
+        <v>162</v>
+      </c>
+      <c r="B162" s="4"/>
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75">
+      <c r="A163" s="1">
+        <v>163</v>
+      </c>
+      <c r="B163" s="4"/>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75">
+      <c r="A164" s="1">
+        <v>164</v>
+      </c>
+      <c r="B164" s="4"/>
+      <c r="C164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75">
+      <c r="A165" s="1">
+        <v>165</v>
+      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="8">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
